--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -10,6 +10,7 @@
     <sheet name="alpha" sheetId="2" r:id="rId1"/>
     <sheet name="beta" sheetId="1" r:id="rId2"/>
     <sheet name="empty" sheetId="3" r:id="rId3"/>
+    <sheet name="m17n 文あ" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">alpha!$A$1:$B$4</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>hoge</t>
     <phoneticPr fontId="1"/>
@@ -62,6 +63,119 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lang</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ru</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>table loader</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルローダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>настольный погрузчик</t>
+  </si>
+  <si>
+    <t>cn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表裝載機</t>
+  </si>
+  <si>
+    <t>kr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>테이블</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로더</t>
+    </r>
+  </si>
+  <si>
+    <t>hi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>टेबल लोडर</t>
+  </si>
+  <si>
+    <t>ar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>محمل</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>الجدول</t>
+    </r>
+  </si>
+  <si>
+    <t>টেবিল লোডার</t>
+  </si>
+  <si>
+    <t>bn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>local ローカル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -69,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,8 +215,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +250,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -139,7 +274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -163,6 +298,15 @@
     </xf>
     <xf numFmtId="38" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -609,4 +753,95 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="10" customFormat="1">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>